--- a/biology/Médecine/1609_en_santé_et_médecine/1609_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1609_en_santé_et_médecine/1609_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1609_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1609_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1609 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1609_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1609_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,14 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>28 janvier : le Lapis philosophicus dogmaticorum que vient de publier Pierre Paulmier (1568-1610), « neveu du fameux médecin Julien Le Paulmier » (1520-1588), est censuré pour spagyrisme et, dès mars, l'auteur publie une défense qu'il intitule Laurus palmaria[1].
-Parution des Observations diverses, de Louise Bourgeois (1563-1636), sage-femme de la reine, et de L'Heureux Accouchement, de Jacques Guillemeau (1549-1613), chirurgien du roi, deux traités d'obstétrique qui « contribu[eront] à faire connaître la manœuvre révolutionnaire de Paré : la version podalique[2] ».
-Première édition, à Francfort, chez Gottfried Tampach et l'année même de la mort de l'auteur, de la Basilica chymica d'Oswald Croll[3], suivie du Tractatus de signaturis[4] (« Traité des signatures ») où l'auteur cherche à prouver, selon la « théorie des signatures », que la forme des plantes est un signe divin indiquant leurs propriétés médicinales[5].
-Jacques Guillemeau (1549-1613) complète son Heureux Accouchement par un traité de néonatalogie et de pédiatrie : De la nourriture et gouvernement des enfants[2].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>28 janvier : le Lapis philosophicus dogmaticorum que vient de publier Pierre Paulmier (1568-1610), « neveu du fameux médecin Julien Le Paulmier » (1520-1588), est censuré pour spagyrisme et, dès mars, l'auteur publie une défense qu'il intitule Laurus palmaria.
+Parution des Observations diverses, de Louise Bourgeois (1563-1636), sage-femme de la reine, et de L'Heureux Accouchement, de Jacques Guillemeau (1549-1613), chirurgien du roi, deux traités d'obstétrique qui « contribu[eront] à faire connaître la manœuvre révolutionnaire de Paré : la version podalique ».
+Première édition, à Francfort, chez Gottfried Tampach et l'année même de la mort de l'auteur, de la Basilica chymica d'Oswald Croll, suivie du Tractatus de signaturis (« Traité des signatures ») où l'auteur cherche à prouver, selon la « théorie des signatures », que la forme des plantes est un signe divin indiquant leurs propriétés médicinales.
+Jacques Guillemeau (1549-1613) complète son Heureux Accouchement par un traité de néonatalogie et de pédiatrie : De la nourriture et gouvernement des enfants.</t>
         </is>
       </c>
     </row>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1609_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1609_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,14 +558,16 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4 avril : Charles de L'Écluse (né en 1526), médecin et botaniste français, premier directeur du jardin botanique de l'université de Leyde[6].
-9 juin : Caspar Schwenckfeld (né en 1563), médecin et naturaliste originaire de Silésie[7].
-16 août : André du Laurens (né en 1558), médecin français[8].
-20 août : Joseph du Chesne (né en 1521, 1544 ou  1546[9]), médecin, chimiste, alchimiste, écrivain et diplomate français[10].
-25 décembre : Oswald Croll (né vers 1560), médecin et alchimiste allemand[11].
-Juan de Cárdenas (es) (né en 1563), médecin et scientifique espagnol, établi au Mexique à partir de 1577, auteur en  1591, de la Primera parte de los problemas y secretos maravillosos de las Indias (« Première partie des merveilleux problèmes et secrets des Indiens[12] »).</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>4 avril : Charles de L'Écluse (né en 1526), médecin et botaniste français, premier directeur du jardin botanique de l'université de Leyde.
+9 juin : Caspar Schwenckfeld (né en 1563), médecin et naturaliste originaire de Silésie.
+16 août : André du Laurens (né en 1558), médecin français.
+20 août : Joseph du Chesne (né en 1521, 1544 ou  1546), médecin, chimiste, alchimiste, écrivain et diplomate français.
+25 décembre : Oswald Croll (né vers 1560), médecin et alchimiste allemand.
+Juan de Cárdenas (es) (né en 1563), médecin et scientifique espagnol, établi au Mexique à partir de 1577, auteur en  1591, de la Primera parte de los problemas y secretos maravillosos de las Indias (« Première partie des merveilleux problèmes et secrets des Indiens »).</t>
         </is>
       </c>
     </row>
